--- a/data/pca/factorExposure/factorExposure_2013-04-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-04-15.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>1.97111621300593e-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001883200985413754</v>
+      </c>
+      <c r="C2">
+        <v>0.03227044875491204</v>
+      </c>
+      <c r="D2">
+        <v>-0.007572133514120043</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001983039635222869</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006041117166980275</v>
+      </c>
+      <c r="C4">
+        <v>0.08577613932018199</v>
+      </c>
+      <c r="D4">
+        <v>-0.07684683247948197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.000925984688943126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01339451537284904</v>
+      </c>
+      <c r="C6">
+        <v>0.1091548443708946</v>
+      </c>
+      <c r="D6">
+        <v>-0.03569540828260817</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.002036043516537489</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004637874999630644</v>
+      </c>
+      <c r="C7">
+        <v>0.05512643135031011</v>
+      </c>
+      <c r="D7">
+        <v>-0.03350137581745566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0001242765975789247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005655382983815695</v>
+      </c>
+      <c r="C8">
+        <v>0.03707018008103477</v>
+      </c>
+      <c r="D8">
+        <v>-0.04023207736964008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.004072765719563267</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.004079423032150127</v>
+      </c>
+      <c r="C9">
+        <v>0.07027365975642198</v>
+      </c>
+      <c r="D9">
+        <v>-0.07211340019154519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.004442087239305157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005455496979937925</v>
+      </c>
+      <c r="C10">
+        <v>0.06818426600263183</v>
+      </c>
+      <c r="D10">
+        <v>0.2081340667365092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.003514428536487958</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005308343383003693</v>
+      </c>
+      <c r="C11">
+        <v>0.07948036006679673</v>
+      </c>
+      <c r="D11">
+        <v>-0.06454307650898738</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0001031138954184937</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.003926657353215957</v>
+      </c>
+      <c r="C12">
+        <v>0.06376410066995825</v>
+      </c>
+      <c r="D12">
+        <v>-0.04805487098975361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.003076470477681368</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008490752193547474</v>
+      </c>
+      <c r="C13">
+        <v>0.06581289468729937</v>
+      </c>
+      <c r="D13">
+        <v>-0.06819537089248302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.001678581282644775</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001447657238809406</v>
+      </c>
+      <c r="C14">
+        <v>0.04627634028953605</v>
+      </c>
+      <c r="D14">
+        <v>-0.01194086142989905</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001009781472542061</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005866912653503992</v>
+      </c>
+      <c r="C15">
+        <v>0.04188220815405384</v>
+      </c>
+      <c r="D15">
+        <v>-0.03186952634291416</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.001711801514023123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004874841637021759</v>
+      </c>
+      <c r="C16">
+        <v>0.065697488086725</v>
+      </c>
+      <c r="D16">
+        <v>-0.04786502269812826</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0002198098902139118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008809362648586037</v>
+      </c>
+      <c r="C20">
+        <v>0.06614284449769303</v>
+      </c>
+      <c r="D20">
+        <v>-0.05246752588733112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.004946513386184312</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009874289547322909</v>
+      </c>
+      <c r="C21">
+        <v>0.02306926579745949</v>
+      </c>
+      <c r="D21">
+        <v>-0.03560512418665093</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01663807689942784</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007000854914064501</v>
+      </c>
+      <c r="C22">
+        <v>0.09382673224044227</v>
+      </c>
+      <c r="D22">
+        <v>-0.1039477333635385</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01696157134948657</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006816348527887813</v>
+      </c>
+      <c r="C23">
+        <v>0.09465371446674252</v>
+      </c>
+      <c r="D23">
+        <v>-0.1044443545931919</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.002255994795371934</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.004896978149930861</v>
+      </c>
+      <c r="C24">
+        <v>0.07389555199152839</v>
+      </c>
+      <c r="D24">
+        <v>-0.06078079953584131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.004249484955812476</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.002660006567055978</v>
+      </c>
+      <c r="C25">
+        <v>0.07731550460282968</v>
+      </c>
+      <c r="D25">
+        <v>-0.06647956246258481</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.006307851484446744</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003598791807354777</v>
+      </c>
+      <c r="C26">
+        <v>0.04277380381477378</v>
+      </c>
+      <c r="D26">
+        <v>-0.02695695376392722</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.005411468493516321</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0007597310210623984</v>
+      </c>
+      <c r="C28">
+        <v>0.1174901980262802</v>
+      </c>
+      <c r="D28">
+        <v>0.3128246419714125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.00149449406165712</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.00304488134155406</v>
+      </c>
+      <c r="C29">
+        <v>0.04981737374230064</v>
+      </c>
+      <c r="D29">
+        <v>-0.007194083071067059</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.003876565116188857</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.008661011351167546</v>
+      </c>
+      <c r="C30">
+        <v>0.1403656320081204</v>
+      </c>
+      <c r="D30">
+        <v>-0.1024038160614624</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0001552279084282415</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006071943945094337</v>
+      </c>
+      <c r="C31">
+        <v>0.04580390609406129</v>
+      </c>
+      <c r="D31">
+        <v>-0.03183137479778148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0009930702443283358</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.00400233873500498</v>
+      </c>
+      <c r="C32">
+        <v>0.0399547692643112</v>
+      </c>
+      <c r="D32">
+        <v>-0.02118141672691581</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.003340005566728602</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.007873248870316586</v>
+      </c>
+      <c r="C33">
+        <v>0.08438344638416019</v>
+      </c>
+      <c r="D33">
+        <v>-0.07505193393554539</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004725143104612139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003730687013599525</v>
+      </c>
+      <c r="C34">
+        <v>0.05762001971088503</v>
+      </c>
+      <c r="D34">
+        <v>-0.04784720954266371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.00281107087857932</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.004754237597063594</v>
+      </c>
+      <c r="C35">
+        <v>0.03932003332717478</v>
+      </c>
+      <c r="D35">
+        <v>-0.01411222955255307</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.004183096195610849</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001390408916054163</v>
+      </c>
+      <c r="C36">
+        <v>0.02468278062572744</v>
+      </c>
+      <c r="D36">
+        <v>-0.02260661088985256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002040918700810729</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.00944766833749534</v>
+      </c>
+      <c r="C38">
+        <v>0.03438420461242193</v>
+      </c>
+      <c r="D38">
+        <v>-0.02133560299440543</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01329029949774421</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001044434173287586</v>
+      </c>
+      <c r="C39">
+        <v>0.1167041553925006</v>
+      </c>
+      <c r="D39">
+        <v>-0.07802294279457225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009656205003935082</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.001815300738525174</v>
+      </c>
+      <c r="C40">
+        <v>0.085990792709872</v>
+      </c>
+      <c r="D40">
+        <v>-0.01739423412640701</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0004207001727484765</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007189147670095634</v>
+      </c>
+      <c r="C41">
+        <v>0.03804171829067866</v>
+      </c>
+      <c r="D41">
+        <v>-0.03437719264652644</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003275822584814118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003500683460501797</v>
+      </c>
+      <c r="C43">
+        <v>0.05097870274003539</v>
+      </c>
+      <c r="D43">
+        <v>-0.02552983997729373</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.002957632026826186</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003340966290889713</v>
+      </c>
+      <c r="C44">
+        <v>0.1122994694949107</v>
+      </c>
+      <c r="D44">
+        <v>-0.07629939428945604</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.001898967443117201</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.00227332678135351</v>
+      </c>
+      <c r="C46">
+        <v>0.0351943715526859</v>
+      </c>
+      <c r="D46">
+        <v>-0.02984812937096271</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0008243821868473597</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.00266997278929316</v>
+      </c>
+      <c r="C47">
+        <v>0.03794829261437969</v>
+      </c>
+      <c r="D47">
+        <v>-0.02470600559910781</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.00314842170553166</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006317744247538717</v>
+      </c>
+      <c r="C48">
+        <v>0.0286398361561232</v>
+      </c>
+      <c r="D48">
+        <v>-0.03434734437352682</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01459509393430104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01438153332731639</v>
+      </c>
+      <c r="C49">
+        <v>0.1766634239356384</v>
+      </c>
+      <c r="D49">
+        <v>-0.02320136865262293</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001358106032898705</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003457395195305694</v>
+      </c>
+      <c r="C50">
+        <v>0.04358622892267602</v>
+      </c>
+      <c r="D50">
+        <v>-0.03548353822391735</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.001260634386088918</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004205494018379364</v>
+      </c>
+      <c r="C51">
+        <v>0.02165457013330984</v>
+      </c>
+      <c r="D51">
+        <v>-0.03035044563050448</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.000259626268292641</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02000694246013844</v>
+      </c>
+      <c r="C53">
+        <v>0.1678588784888107</v>
+      </c>
+      <c r="D53">
+        <v>-0.04279614024058428</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.0007480838171441451</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008644531512019509</v>
+      </c>
+      <c r="C54">
+        <v>0.05620884156168312</v>
+      </c>
+      <c r="D54">
+        <v>-0.04229362313449746</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.004109726511123664</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009065166881128225</v>
+      </c>
+      <c r="C55">
+        <v>0.1071829196349119</v>
+      </c>
+      <c r="D55">
+        <v>-0.05028739396938614</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.002739205373166177</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.01954718206653814</v>
+      </c>
+      <c r="C56">
+        <v>0.175200988529868</v>
+      </c>
+      <c r="D56">
+        <v>-0.04260412460662569</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.007901091071801983</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01922970598256902</v>
+      </c>
+      <c r="C58">
+        <v>0.1062166531542451</v>
+      </c>
+      <c r="D58">
+        <v>-0.0605502026156516</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.00682597805239084</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009056664784334015</v>
+      </c>
+      <c r="C59">
+        <v>0.1652512954828402</v>
+      </c>
+      <c r="D59">
+        <v>0.2940372227499426</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.00466386716975741</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02317711215721686</v>
+      </c>
+      <c r="C60">
+        <v>0.2224249004168081</v>
+      </c>
+      <c r="D60">
+        <v>-0.02770196279020323</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.0150993586323407</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.002109387251420411</v>
+      </c>
+      <c r="C61">
+        <v>0.0947986347455891</v>
+      </c>
+      <c r="D61">
+        <v>-0.06117969360581064</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1705375960477498</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1437083833692209</v>
+      </c>
+      <c r="C62">
+        <v>0.08396943530278823</v>
+      </c>
+      <c r="D62">
+        <v>-0.05024031697040046</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001654662012333012</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006379312092223183</v>
+      </c>
+      <c r="C63">
+        <v>0.0604316172778616</v>
+      </c>
+      <c r="D63">
+        <v>-0.02369583862172592</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.005682913548888092</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01476769513233684</v>
+      </c>
+      <c r="C64">
+        <v>0.103786353654627</v>
+      </c>
+      <c r="D64">
+        <v>-0.06383323416662316</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.001581736941450851</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01705979899417143</v>
+      </c>
+      <c r="C65">
+        <v>0.1175127196257086</v>
+      </c>
+      <c r="D65">
+        <v>-0.02221793196264994</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.008752829045252436</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.0122682578860526</v>
+      </c>
+      <c r="C66">
+        <v>0.1574440276787946</v>
+      </c>
+      <c r="D66">
+        <v>-0.1196258362144334</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.00340058639373213</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01551065663138648</v>
+      </c>
+      <c r="C67">
+        <v>0.06473853383714753</v>
+      </c>
+      <c r="D67">
+        <v>-0.03078443122906272</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.00663613577100276</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0008703289889061737</v>
+      </c>
+      <c r="C68">
+        <v>0.09869955812242223</v>
+      </c>
+      <c r="D68">
+        <v>0.2563674339332688</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002922378207199476</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.005754069010006008</v>
+      </c>
+      <c r="C69">
+        <v>0.04923691507157654</v>
+      </c>
+      <c r="D69">
+        <v>-0.04095092736965983</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>1.215829059084474e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001755197520758853</v>
+      </c>
+      <c r="C70">
+        <v>0.002171728698217047</v>
+      </c>
+      <c r="D70">
+        <v>-0.001913805148608308</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.001481598062288483</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005956670018538284</v>
+      </c>
+      <c r="C71">
+        <v>0.1046620012665453</v>
+      </c>
+      <c r="D71">
+        <v>0.2886931769373977</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.00574113911535186</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01527452263738446</v>
+      </c>
+      <c r="C72">
+        <v>0.149132911824601</v>
+      </c>
+      <c r="D72">
+        <v>-0.02374394715300738</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01173520157523629</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.02891359733340911</v>
+      </c>
+      <c r="C73">
+        <v>0.2769195364678615</v>
+      </c>
+      <c r="D73">
+        <v>-0.04359127409139003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.004989134592658766</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001135045879715596</v>
+      </c>
+      <c r="C74">
+        <v>0.1038540048735208</v>
+      </c>
+      <c r="D74">
+        <v>-0.04503977088729556</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.003990727213129135</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01060258524444704</v>
+      </c>
+      <c r="C75">
+        <v>0.1314869246043368</v>
+      </c>
+      <c r="D75">
+        <v>-0.02727056067374656</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.009168397114556802</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02104847558610771</v>
+      </c>
+      <c r="C76">
+        <v>0.1497435127285897</v>
+      </c>
+      <c r="D76">
+        <v>-0.06780008944543355</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>6.305848959414472e-05</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02403706774152545</v>
+      </c>
+      <c r="C77">
+        <v>0.1306905140337936</v>
+      </c>
+      <c r="D77">
+        <v>-0.06148744732118025</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.001453298766941585</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01417791332136895</v>
+      </c>
+      <c r="C78">
+        <v>0.09385822629976649</v>
+      </c>
+      <c r="D78">
+        <v>-0.06957945243976905</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02418806809667259</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03682607102033745</v>
+      </c>
+      <c r="C79">
+        <v>0.1574904063209491</v>
+      </c>
+      <c r="D79">
+        <v>-0.0336752313292286</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.004830066786133257</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01033475845202787</v>
+      </c>
+      <c r="C80">
+        <v>0.04098165289731071</v>
+      </c>
+      <c r="D80">
+        <v>-0.03240882645907406</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0006718492276559509</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01455981792834752</v>
+      </c>
+      <c r="C81">
+        <v>0.1252951780138668</v>
+      </c>
+      <c r="D81">
+        <v>-0.05486453711863584</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.005392628153720655</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01921229187627879</v>
+      </c>
+      <c r="C82">
+        <v>0.143369164465688</v>
+      </c>
+      <c r="D82">
+        <v>-0.04504777402454677</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.00881988451516267</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.00993831035251269</v>
+      </c>
+      <c r="C83">
+        <v>0.05604110285515807</v>
+      </c>
+      <c r="D83">
+        <v>-0.05133418044839507</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01251385645553644</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01150395234080307</v>
+      </c>
+      <c r="C84">
+        <v>0.03607245447460344</v>
+      </c>
+      <c r="D84">
+        <v>0.006820001903698852</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.0149838357424957</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02779796618604825</v>
+      </c>
+      <c r="C85">
+        <v>0.130123826422771</v>
+      </c>
+      <c r="D85">
+        <v>-0.04963454869246281</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.00124641189887273</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.005386127007452443</v>
+      </c>
+      <c r="C86">
+        <v>0.04908437752539697</v>
+      </c>
+      <c r="D86">
+        <v>-0.02202732380923497</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.005976946806554806</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01001245638737933</v>
+      </c>
+      <c r="C87">
+        <v>0.1300456883213125</v>
+      </c>
+      <c r="D87">
+        <v>-0.07130320478438781</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01313202806301663</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002994498315324284</v>
+      </c>
+      <c r="C88">
+        <v>0.06827415894389494</v>
+      </c>
+      <c r="D88">
+        <v>-0.01378648615296972</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01527548376166204</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.00146791511307192</v>
+      </c>
+      <c r="C89">
+        <v>0.1553602848771523</v>
+      </c>
+      <c r="D89">
+        <v>0.3431074284880375</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.002870684537929174</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.00699762299611069</v>
+      </c>
+      <c r="C90">
+        <v>0.1343902054570675</v>
+      </c>
+      <c r="D90">
+        <v>0.3247005870985559</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.0006599426981581652</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.0100884190874919</v>
+      </c>
+      <c r="C91">
+        <v>0.103804178222904</v>
+      </c>
+      <c r="D91">
+        <v>-0.02259387439216405</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.008698932267303566</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0004635459920723535</v>
+      </c>
+      <c r="C92">
+        <v>0.14283293408163</v>
+      </c>
+      <c r="D92">
+        <v>0.3306823209220863</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0008494481926104021</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004865205468529603</v>
+      </c>
+      <c r="C93">
+        <v>0.1150114849813445</v>
+      </c>
+      <c r="D93">
+        <v>0.3138093373742292</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.003149044222291111</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02218139027454586</v>
+      </c>
+      <c r="C94">
+        <v>0.1552851820552489</v>
+      </c>
+      <c r="D94">
+        <v>-0.03899232928572659</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.004891130121870767</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01583809793126143</v>
+      </c>
+      <c r="C95">
+        <v>0.125610543599213</v>
+      </c>
+      <c r="D95">
+        <v>-0.06280208184264513</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001389750719179387</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03373899390869045</v>
+      </c>
+      <c r="C97">
+        <v>0.1836585934708212</v>
+      </c>
+      <c r="D97">
+        <v>-0.02474252692903048</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.004123761751073624</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03592948878258841</v>
+      </c>
+      <c r="C98">
+        <v>0.249844238110883</v>
+      </c>
+      <c r="D98">
+        <v>-0.05098957489040178</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9833710004057418</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9828259865644777</v>
+      </c>
+      <c r="C99">
+        <v>-0.1100843890502019</v>
+      </c>
+      <c r="D99">
+        <v>0.02986897799841263</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001451075913067885</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003089526659609677</v>
+      </c>
+      <c r="C101">
+        <v>0.0498537106744019</v>
+      </c>
+      <c r="D101">
+        <v>-0.007601258820048503</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
